--- a/banco_hengst_2013_b.xlsx
+++ b/banco_hengst_2013_b.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PyProj\mercos_importacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0C0B20-C89F-4F27-B692-7C03FF013B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F865ECCB-7BCE-4474-96D8-28F91EB85BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="0" windowWidth="12660" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15225" yWindow="0" windowWidth="13515" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$I$421</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$I$414</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,24 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>T250W</t>
-  </si>
-  <si>
-    <t>H96W03</t>
-  </si>
-  <si>
-    <t>LAV DRESSLER &amp; CIA. LTDA.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>CNPJ</t>
-  </si>
-  <si>
-    <t>06.369.673/0001-08</t>
-  </si>
-  <si>
-    <t>Fernando Senna</t>
   </si>
   <si>
     <t>data</t>
@@ -81,6 +66,27 @@
   </si>
   <si>
     <t>vendedor</t>
+  </si>
+  <si>
+    <t>15.295.953/0001-00</t>
+  </si>
+  <si>
+    <t>RIMATLA COM. DE TRANSP. ROD. LTDA. ME</t>
+  </si>
+  <si>
+    <t>E161H01 D28</t>
+  </si>
+  <si>
+    <t>Henrique Ballstaedt</t>
+  </si>
+  <si>
+    <t>E202H01 D34</t>
+  </si>
+  <si>
+    <t>E2960LI</t>
+  </si>
+  <si>
+    <t>E52KP D36</t>
   </si>
 </sst>
 </file>
@@ -510,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFC81DC-44EE-42A2-8D94-A234D188F986}">
-  <dimension ref="A1:I421"/>
+  <dimension ref="A1:I414"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,57 +537,57 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F2" s="6">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G2" s="7">
-        <v>20.060675669999998</v>
+        <v>11.27025254</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I2" s="8">
         <v>41607</v>
@@ -589,53 +595,93 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>41.567258510000002</v>
+        <v>13.866146799999999</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I3" s="8">
         <v>41607</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="9"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="8"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6">
+        <v>24</v>
+      </c>
+      <c r="G4" s="7">
+        <v>33.83134785</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8">
+        <v>41607</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="9"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="8"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6">
+        <v>42</v>
+      </c>
+      <c r="G5" s="7">
+        <v>19.570721939999999</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="8">
+        <v>41607</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="9"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -644,7 +690,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="9"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -653,7 +699,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="9"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -662,7 +708,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="9"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -671,7 +717,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="9"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -680,7 +726,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -725,7 +771,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -734,7 +780,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -743,7 +789,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -752,7 +798,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -761,7 +807,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -770,7 +816,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -779,7 +825,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1076,7 +1122,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="9"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -1085,7 +1131,7 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="9"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -1094,7 +1140,7 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="9"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -1103,7 +1149,7 @@
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="9"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -1112,7 +1158,7 @@
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="9"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -1121,7 +1167,7 @@
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="9"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -1130,7 +1176,7 @@
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="9"/>
+      <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -1724,7 +1770,7 @@
       <c r="I126" s="8"/>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C127" s="5"/>
+      <c r="C127" s="9"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
@@ -1733,7 +1779,7 @@
       <c r="I127" s="8"/>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C128" s="5"/>
+      <c r="C128" s="9"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -1742,7 +1788,7 @@
       <c r="I128" s="8"/>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C129" s="5"/>
+      <c r="C129" s="9"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
@@ -1751,7 +1797,7 @@
       <c r="I129" s="8"/>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C130" s="5"/>
+      <c r="C130" s="9"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -1760,7 +1806,7 @@
       <c r="I130" s="8"/>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C131" s="5"/>
+      <c r="C131" s="9"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
@@ -1769,7 +1815,7 @@
       <c r="I131" s="8"/>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C132" s="5"/>
+      <c r="C132" s="9"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
@@ -1787,7 +1833,7 @@
       <c r="I133" s="8"/>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
+      <c r="C134" s="5"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
@@ -1796,7 +1842,7 @@
       <c r="I134" s="8"/>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
+      <c r="C135" s="5"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -1805,7 +1851,7 @@
       <c r="I135" s="8"/>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
+      <c r="C136" s="5"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -1814,7 +1860,7 @@
       <c r="I136" s="8"/>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
+      <c r="C137" s="5"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
@@ -1823,7 +1869,7 @@
       <c r="I137" s="8"/>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
+      <c r="C138" s="5"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -1832,7 +1878,7 @@
       <c r="I138" s="8"/>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
+      <c r="C139" s="5"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
@@ -2075,7 +2121,7 @@
       <c r="I165" s="8"/>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C166" s="5"/>
+      <c r="C166" s="9"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
@@ -2084,7 +2130,7 @@
       <c r="I166" s="8"/>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C167" s="5"/>
+      <c r="C167" s="9"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
@@ -2093,7 +2139,7 @@
       <c r="I167" s="8"/>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C168" s="5"/>
+      <c r="C168" s="9"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -2102,7 +2148,7 @@
       <c r="I168" s="8"/>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C169" s="5"/>
+      <c r="C169" s="9"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
@@ -2111,7 +2157,7 @@
       <c r="I169" s="8"/>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C170" s="5"/>
+      <c r="C170" s="9"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -2120,7 +2166,7 @@
       <c r="I170" s="8"/>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C171" s="5"/>
+      <c r="C171" s="9"/>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
@@ -2138,7 +2184,7 @@
       <c r="I172" s="8"/>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
+      <c r="C173" s="5"/>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -2147,7 +2193,7 @@
       <c r="I173" s="8"/>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
+      <c r="C174" s="5"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -2156,7 +2202,7 @@
       <c r="I174" s="8"/>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
+      <c r="C175" s="5"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
@@ -2165,7 +2211,7 @@
       <c r="I175" s="8"/>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
+      <c r="C176" s="5"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
@@ -2174,7 +2220,7 @@
       <c r="I176" s="8"/>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
+      <c r="C177" s="5"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
@@ -2183,7 +2229,7 @@
       <c r="I177" s="8"/>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
+      <c r="C178" s="5"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
@@ -2597,7 +2643,7 @@
       <c r="I223" s="8"/>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C224" s="5"/>
+      <c r="C224" s="9"/>
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
@@ -2606,7 +2652,7 @@
       <c r="I224" s="8"/>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C225" s="5"/>
+      <c r="C225" s="9"/>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
@@ -2615,7 +2661,7 @@
       <c r="I225" s="8"/>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C226" s="5"/>
+      <c r="C226" s="9"/>
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
@@ -2624,7 +2670,7 @@
       <c r="I226" s="8"/>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C227" s="5"/>
+      <c r="C227" s="9"/>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
@@ -2633,7 +2679,7 @@
       <c r="I227" s="8"/>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C228" s="5"/>
+      <c r="C228" s="9"/>
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
@@ -2642,7 +2688,7 @@
       <c r="I228" s="8"/>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C229" s="5"/>
+      <c r="C229" s="9"/>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
@@ -2651,7 +2697,7 @@
       <c r="I229" s="8"/>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C230" s="5"/>
+      <c r="C230" s="9"/>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
@@ -2687,7 +2733,7 @@
       <c r="I233" s="8"/>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C234" s="9"/>
+      <c r="C234" s="5"/>
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
@@ -2696,7 +2742,7 @@
       <c r="I234" s="8"/>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C235" s="9"/>
+      <c r="C235" s="5"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
@@ -2705,7 +2751,7 @@
       <c r="I235" s="8"/>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C236" s="9"/>
+      <c r="C236" s="5"/>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
@@ -2714,7 +2760,7 @@
       <c r="I236" s="8"/>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C237" s="9"/>
+      <c r="C237" s="5"/>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
@@ -2723,7 +2769,7 @@
       <c r="I237" s="8"/>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C238" s="9"/>
+      <c r="C238" s="5"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
@@ -2732,7 +2778,7 @@
       <c r="I238" s="8"/>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C239" s="9"/>
+      <c r="C239" s="5"/>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
@@ -2741,7 +2787,7 @@
       <c r="I239" s="8"/>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C240" s="9"/>
+      <c r="C240" s="5"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
@@ -2849,7 +2895,7 @@
       <c r="I251" s="8"/>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C252" s="5"/>
+      <c r="C252" s="9"/>
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
@@ -2858,7 +2904,7 @@
       <c r="I252" s="8"/>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C253" s="5"/>
+      <c r="C253" s="9"/>
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
@@ -2867,7 +2913,7 @@
       <c r="I253" s="8"/>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C254" s="5"/>
+      <c r="C254" s="9"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
@@ -2876,7 +2922,7 @@
       <c r="I254" s="8"/>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C255" s="5"/>
+      <c r="C255" s="9"/>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
@@ -2885,7 +2931,7 @@
       <c r="I255" s="8"/>
     </row>
     <row r="256" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C256" s="5"/>
+      <c r="C256" s="9"/>
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
@@ -2894,7 +2940,7 @@
       <c r="I256" s="8"/>
     </row>
     <row r="257" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C257" s="5"/>
+      <c r="C257" s="9"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
@@ -2903,7 +2949,7 @@
       <c r="I257" s="8"/>
     </row>
     <row r="258" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C258" s="5"/>
+      <c r="C258" s="9"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
@@ -3092,7 +3138,7 @@
       <c r="I278" s="8"/>
     </row>
     <row r="279" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C279" s="9"/>
+      <c r="C279" s="5"/>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
@@ -3101,7 +3147,7 @@
       <c r="I279" s="8"/>
     </row>
     <row r="280" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C280" s="9"/>
+      <c r="C280" s="5"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
@@ -3110,7 +3156,7 @@
       <c r="I280" s="8"/>
     </row>
     <row r="281" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C281" s="9"/>
+      <c r="C281" s="5"/>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
@@ -3119,7 +3165,7 @@
       <c r="I281" s="8"/>
     </row>
     <row r="282" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C282" s="9"/>
+      <c r="C282" s="5"/>
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
@@ -3128,7 +3174,7 @@
       <c r="I282" s="8"/>
     </row>
     <row r="283" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C283" s="9"/>
+      <c r="C283" s="5"/>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
@@ -3137,7 +3183,7 @@
       <c r="I283" s="8"/>
     </row>
     <row r="284" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C284" s="9"/>
+      <c r="C284" s="5"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
@@ -3146,7 +3192,7 @@
       <c r="I284" s="8"/>
     </row>
     <row r="285" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C285" s="9"/>
+      <c r="C285" s="5"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
@@ -3164,7 +3210,7 @@
       <c r="I286" s="8"/>
     </row>
     <row r="287" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C287" s="5"/>
+      <c r="C287" s="9"/>
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
@@ -3173,7 +3219,7 @@
       <c r="I287" s="8"/>
     </row>
     <row r="288" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C288" s="5"/>
+      <c r="C288" s="9"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
@@ -3182,7 +3228,7 @@
       <c r="I288" s="8"/>
     </row>
     <row r="289" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C289" s="5"/>
+      <c r="C289" s="9"/>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
@@ -3191,7 +3237,7 @@
       <c r="I289" s="8"/>
     </row>
     <row r="290" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C290" s="5"/>
+      <c r="C290" s="9"/>
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
@@ -3227,7 +3273,7 @@
       <c r="I293" s="8"/>
     </row>
     <row r="294" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C294" s="9"/>
+      <c r="C294" s="5"/>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
@@ -3236,7 +3282,7 @@
       <c r="I294" s="8"/>
     </row>
     <row r="295" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C295" s="9"/>
+      <c r="C295" s="5"/>
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
@@ -3245,7 +3291,7 @@
       <c r="I295" s="8"/>
     </row>
     <row r="296" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C296" s="9"/>
+      <c r="C296" s="5"/>
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
@@ -3254,7 +3300,7 @@
       <c r="I296" s="8"/>
     </row>
     <row r="297" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C297" s="9"/>
+      <c r="C297" s="5"/>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
@@ -3956,7 +4002,7 @@
       <c r="I374" s="8"/>
     </row>
     <row r="375" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C375" s="5"/>
+      <c r="C375" s="9"/>
       <c r="D375" s="6"/>
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
@@ -3965,7 +4011,7 @@
       <c r="I375" s="8"/>
     </row>
     <row r="376" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C376" s="5"/>
+      <c r="C376" s="9"/>
       <c r="D376" s="6"/>
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
@@ -3974,7 +4020,7 @@
       <c r="I376" s="8"/>
     </row>
     <row r="377" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C377" s="5"/>
+      <c r="C377" s="9"/>
       <c r="D377" s="6"/>
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
@@ -3983,7 +4029,7 @@
       <c r="I377" s="8"/>
     </row>
     <row r="378" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C378" s="5"/>
+      <c r="C378" s="9"/>
       <c r="D378" s="6"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
@@ -3992,7 +4038,7 @@
       <c r="I378" s="8"/>
     </row>
     <row r="379" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C379" s="5"/>
+      <c r="C379" s="9"/>
       <c r="D379" s="6"/>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
@@ -4001,7 +4047,7 @@
       <c r="I379" s="8"/>
     </row>
     <row r="380" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C380" s="5"/>
+      <c r="C380" s="9"/>
       <c r="D380" s="6"/>
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
@@ -4010,7 +4056,7 @@
       <c r="I380" s="8"/>
     </row>
     <row r="381" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C381" s="5"/>
+      <c r="C381" s="9"/>
       <c r="D381" s="6"/>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
@@ -4127,7 +4173,7 @@
       <c r="I393" s="8"/>
     </row>
     <row r="394" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C394" s="9"/>
+      <c r="C394" s="5"/>
       <c r="D394" s="6"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
@@ -4136,7 +4182,7 @@
       <c r="I394" s="8"/>
     </row>
     <row r="395" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C395" s="9"/>
+      <c r="C395" s="5"/>
       <c r="D395" s="6"/>
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
@@ -4145,7 +4191,7 @@
       <c r="I395" s="8"/>
     </row>
     <row r="396" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C396" s="9"/>
+      <c r="C396" s="5"/>
       <c r="D396" s="6"/>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
@@ -4154,7 +4200,7 @@
       <c r="I396" s="8"/>
     </row>
     <row r="397" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C397" s="9"/>
+      <c r="C397" s="5"/>
       <c r="D397" s="6"/>
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
@@ -4163,7 +4209,7 @@
       <c r="I397" s="8"/>
     </row>
     <row r="398" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C398" s="9"/>
+      <c r="C398" s="5"/>
       <c r="D398" s="6"/>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
@@ -4172,7 +4218,7 @@
       <c r="I398" s="8"/>
     </row>
     <row r="399" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C399" s="9"/>
+      <c r="C399" s="5"/>
       <c r="D399" s="6"/>
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
@@ -4181,7 +4227,7 @@
       <c r="I399" s="8"/>
     </row>
     <row r="400" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C400" s="9"/>
+      <c r="C400" s="5"/>
       <c r="D400" s="6"/>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
@@ -4315,89 +4361,26 @@
       <c r="H414" s="6"/>
       <c r="I414" s="8"/>
     </row>
-    <row r="415" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C415" s="5"/>
-      <c r="D415" s="6"/>
-      <c r="E415" s="6"/>
-      <c r="F415" s="6"/>
-      <c r="G415" s="7"/>
-      <c r="H415" s="6"/>
-      <c r="I415" s="8"/>
-    </row>
-    <row r="416" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C416" s="5"/>
-      <c r="D416" s="6"/>
-      <c r="E416" s="6"/>
-      <c r="F416" s="6"/>
-      <c r="G416" s="7"/>
-      <c r="H416" s="6"/>
-      <c r="I416" s="8"/>
-    </row>
-    <row r="417" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C417" s="5"/>
-      <c r="D417" s="6"/>
-      <c r="E417" s="6"/>
-      <c r="F417" s="6"/>
-      <c r="G417" s="7"/>
-      <c r="H417" s="6"/>
-      <c r="I417" s="8"/>
-    </row>
-    <row r="418" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C418" s="5"/>
-      <c r="D418" s="6"/>
-      <c r="E418" s="6"/>
-      <c r="F418" s="6"/>
-      <c r="G418" s="7"/>
-      <c r="H418" s="6"/>
-      <c r="I418" s="8"/>
-    </row>
-    <row r="419" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C419" s="5"/>
-      <c r="D419" s="6"/>
-      <c r="E419" s="6"/>
-      <c r="F419" s="6"/>
-      <c r="G419" s="7"/>
-      <c r="H419" s="6"/>
-      <c r="I419" s="8"/>
-    </row>
-    <row r="420" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C420" s="5"/>
-      <c r="D420" s="6"/>
-      <c r="E420" s="6"/>
-      <c r="F420" s="6"/>
-      <c r="G420" s="7"/>
-      <c r="H420" s="6"/>
-      <c r="I420" s="8"/>
-    </row>
-    <row r="421" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C421" s="5"/>
-      <c r="D421" s="6"/>
-      <c r="E421" s="6"/>
-      <c r="F421" s="6"/>
-      <c r="G421" s="7"/>
-      <c r="H421" s="6"/>
-      <c r="I421" s="8"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B421">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+  <conditionalFormatting sqref="B1:B414">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/banco_hengst_2013_b.xlsx
+++ b/banco_hengst_2013_b.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PyProj\mercos_importacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PyProjects\mercos_importacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F865ECCB-7BCE-4474-96D8-28F91EB85BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DE0AE5-86F4-4E02-AFDA-881863E0EDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="0" windowWidth="13515" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="0" windowWidth="12945" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
   <si>
     <t>CNPJ</t>
   </si>
@@ -87,6 +87,84 @@
   </si>
   <si>
     <t>E52KP D36</t>
+  </si>
+  <si>
+    <t>E718L</t>
+  </si>
+  <si>
+    <t>E980LI</t>
+  </si>
+  <si>
+    <t>H19W10</t>
+  </si>
+  <si>
+    <t>H200W01</t>
+  </si>
+  <si>
+    <t>H305WK</t>
+  </si>
+  <si>
+    <t>H328WK</t>
+  </si>
+  <si>
+    <t>H70WK11</t>
+  </si>
+  <si>
+    <t>83.247.270/0001-29</t>
+  </si>
+  <si>
+    <t>MERCECAR COM. DE PECAS LTDA.</t>
+  </si>
+  <si>
+    <t>E1908LI</t>
+  </si>
+  <si>
+    <t>E251H D11</t>
+  </si>
+  <si>
+    <t>E361L</t>
+  </si>
+  <si>
+    <t>E500KP02 D36</t>
+  </si>
+  <si>
+    <t>E57KP D73</t>
+  </si>
+  <si>
+    <t>E68KP01 D73</t>
+  </si>
+  <si>
+    <t>E805L</t>
+  </si>
+  <si>
+    <t>E931LI</t>
+  </si>
+  <si>
+    <t>E947LI</t>
+  </si>
+  <si>
+    <t>E956LI01</t>
+  </si>
+  <si>
+    <t>H10W02</t>
+  </si>
+  <si>
+    <t>H17WK04</t>
+  </si>
+  <si>
+    <t>H17WK11</t>
+  </si>
+  <si>
+    <t>H200W04</t>
+  </si>
+  <si>
+    <t>H200WDK01</t>
+  </si>
+  <si>
+    <t>H200WN01</t>
+  </si>
+  <si>
+    <t>H333WK</t>
   </si>
 </sst>
 </file>
@@ -174,7 +252,127 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -519,7 +717,7 @@
   <dimension ref="A1:I414"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
@@ -656,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
@@ -681,240 +879,760 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="8"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7">
+        <v>21.825730480000001</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="8">
+        <v>41607</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="8"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7">
+        <v>27.965483710000001</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="8">
+        <v>41607</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="8"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6">
+        <v>60</v>
+      </c>
+      <c r="G8" s="7">
+        <v>23.77558874</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="8">
+        <v>41607</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="8"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6">
+        <v>24</v>
+      </c>
+      <c r="G9" s="7">
+        <v>17.646589240000001</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="8">
+        <v>41607</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="8"/>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="6">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7">
+        <v>53.763738410000002</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="8">
+        <v>41607</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7">
+        <v>45.811493919999997</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="8">
+        <v>41607</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7">
+        <v>21.646702690000001</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="8">
+        <v>41607</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="8"/>
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6">
+        <v>6</v>
+      </c>
+      <c r="G13" s="7">
+        <v>27.04366491</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="8">
+        <v>41607</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="6">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7">
+        <v>19.669648250000002</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="8">
+        <v>41607</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="8"/>
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="6">
+        <v>6</v>
+      </c>
+      <c r="G15" s="7">
+        <v>133.89993099</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="8">
+        <v>41607</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="9"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="9"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="9"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="9"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="9"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="9"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="9"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="9"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="9"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="9"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="9"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="9"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="9"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="9"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="9"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="6">
+        <v>6</v>
+      </c>
+      <c r="G16" s="7">
+        <v>28.785964450000002</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="8">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7">
+        <v>25.46962825</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="8">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="6">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7">
+        <v>30.078944830000001</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="8">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="6">
+        <v>8</v>
+      </c>
+      <c r="G19" s="7">
+        <v>56.789596330000002</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="8">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="6">
+        <v>6</v>
+      </c>
+      <c r="G20" s="7">
+        <v>13.629902169999999</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="8">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="6">
+        <v>6</v>
+      </c>
+      <c r="G21" s="7">
+        <v>22.83656238</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="8">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="6">
+        <v>6</v>
+      </c>
+      <c r="G22" s="7">
+        <v>21.873333550000002</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="8">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="6">
+        <v>6</v>
+      </c>
+      <c r="G23" s="7">
+        <v>27.96566108</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="8">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="6">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7">
+        <v>15.52503568</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="8">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="6">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7">
+        <v>12.013010810000001</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="8">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="6">
+        <v>10</v>
+      </c>
+      <c r="G26" s="7">
+        <v>21.77449945</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="8">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="6">
+        <v>12</v>
+      </c>
+      <c r="G27" s="7">
+        <v>25.902074939999999</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="8">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="6">
+        <v>6</v>
+      </c>
+      <c r="G28" s="7">
+        <v>34.253995199999999</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="8">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="6">
+        <v>6</v>
+      </c>
+      <c r="G29" s="7">
+        <v>30.970489730000001</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="8">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="6">
+        <v>6</v>
+      </c>
+      <c r="G30" s="7">
+        <v>43.522453040000002</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="8">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="6">
+        <v>6</v>
+      </c>
+      <c r="G31" s="7">
+        <v>43.713893370000001</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="8">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="9"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -4362,25 +5080,47 @@
       <c r="I414" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B414">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+  <conditionalFormatting sqref="B32:B414">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="B32:B1048576">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B31">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B31">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
